--- a/Semester 3/DS Grundlagen/Excel Funktionen.xlsx
+++ b/Semester 3/DS Grundlagen/Excel Funktionen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/bratsjon_students_zhaw_ch/Documents/Sem 3/Data Science Grundlagen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Documents/GitHub/ZHAW/Semester 3/DS Grundlagen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F191DC51-DFB2-214A-9770-A201FFE3DA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C26177-AD78-4F4F-97A6-5D821ABB7BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{59DF8FAE-8642-414F-964D-1792F92F6854}"/>
+    <workbookView xWindow="25800" yWindow="500" windowWidth="25800" windowHeight="19640" xr2:uid="{59DF8FAE-8642-414F-964D-1792F92F6854}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="146">
   <si>
     <t>IF</t>
   </si>
@@ -511,6 +511,36 @@
   </si>
   <si>
     <t>=FILTER(t_filter;t_filter[Column2]=B")</t>
+  </si>
+  <si>
+    <t>direkt</t>
+  </si>
+  <si>
+    <t>Test und Kontrollgruppe erstellen (Bsp. 80/20)</t>
+  </si>
+  <si>
+    <t>mit Nummer</t>
+  </si>
+  <si>
+    <t>Evalutationsmetriken für Regressionsprobleme</t>
+  </si>
+  <si>
+    <t>MSE (Mean squared Error)</t>
+  </si>
+  <si>
+    <t>=SUMSQ(*effektiv* - *berechnet*) / *Anzahl Beobachtungen*</t>
+  </si>
+  <si>
+    <t>RMSD (Root mean squared Error)</t>
+  </si>
+  <si>
+    <t>=SQRT(*MSE*)</t>
+  </si>
+  <si>
+    <t>MAE (Mean absoulte Error)</t>
+  </si>
+  <si>
+    <t>=SUM(ABS(*effektiv* - *berechnet*)) / *Anzal Beobachtungen*</t>
   </si>
 </sst>
 </file>
@@ -588,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -596,6 +626,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1059,20 +1092,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874CC8D0-7E3E-4246-83A9-7FD174EB4CDD}">
-  <dimension ref="A1:O174"/>
+  <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.46484375" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -1083,7 +1116,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1124,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1106,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1126,7 +1159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1138,10 +1171,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1150,7 +1183,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1162,7 +1195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11" t="b">
         <f>ISBLANK(A11)</f>
         <v>1</v>
@@ -1171,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1179,7 +1212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1193,7 +1226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1211,7 +1244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1229,7 +1262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1247,7 +1280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1255,7 +1288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1269,7 +1302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1287,7 +1320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1305,7 +1338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1323,7 +1356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1331,12 +1364,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1351,7 +1384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1366,7 +1399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1374,7 +1407,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1382,7 +1415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1400,7 +1433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1418,7 +1451,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1429,7 +1462,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D35">
         <f>SUMPRODUCT(t_sumproduct[Column1],t_sumproduct[Column2])</f>
         <v>11</v>
@@ -1441,7 +1474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>43</v>
       </c>
@@ -1449,12 +1482,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1466,7 +1499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1478,7 +1511,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1490,7 +1523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1502,7 +1535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1514,7 +1547,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -1522,12 +1555,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -1542,7 +1575,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1550,7 +1583,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1562,12 +1595,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
@@ -1575,12 +1608,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -1592,7 +1625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -1600,7 +1633,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1612,12 +1645,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -1625,12 +1658,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -1642,17 +1675,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>64</v>
       </c>
@@ -1660,12 +1693,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -1677,17 +1710,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>67</v>
       </c>
@@ -1695,7 +1728,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -1707,7 +1740,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>70</v>
       </c>
@@ -1715,7 +1748,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>9</v>
       </c>
@@ -1727,7 +1760,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>73</v>
       </c>
@@ -1735,12 +1768,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -1752,22 +1785,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>76</v>
       </c>
@@ -1775,12 +1808,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -1792,22 +1825,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>79</v>
       </c>
@@ -1815,12 +1848,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -1832,22 +1865,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>82</v>
       </c>
@@ -1855,12 +1888,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>36</v>
       </c>
@@ -1872,12 +1905,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2</v>
       </c>
@@ -1885,7 +1918,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3</v>
       </c>
@@ -1897,7 +1930,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>87</v>
       </c>
@@ -1905,7 +1938,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>36</v>
       </c>
@@ -1917,27 +1950,27 @@
         <v>89</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>90</v>
       </c>
@@ -1945,7 +1978,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>-5</v>
       </c>
@@ -1957,7 +1990,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>92</v>
       </c>
@@ -1965,12 +1998,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -1985,22 +2018,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -2014,7 +2047,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1</v>
       </c>
@@ -2029,17 +2062,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E133">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E134">
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>94</v>
       </c>
@@ -2047,7 +2080,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>36</v>
       </c>
@@ -2065,7 +2098,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1</v>
       </c>
@@ -2079,7 +2112,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2</v>
       </c>
@@ -2093,7 +2126,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3</v>
       </c>
@@ -2101,7 +2134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>4</v>
       </c>
@@ -2119,12 +2152,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>97</v>
       </c>
@@ -2132,7 +2165,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>36</v>
       </c>
@@ -2155,7 +2188,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1</v>
       </c>
@@ -2183,7 +2216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2</v>
       </c>
@@ -2201,7 +2234,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1</v>
       </c>
@@ -2219,12 +2252,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>104</v>
       </c>
@@ -2232,7 +2265,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -2246,7 +2279,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1</v>
       </c>
@@ -2265,7 +2298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2</v>
       </c>
@@ -2280,7 +2313,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>3</v>
       </c>
@@ -2302,7 +2335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>120</v>
       </c>
@@ -2313,7 +2346,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -2322,7 +2355,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>107</v>
       </c>
@@ -2344,7 +2377,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>17</v>
       </c>
@@ -2363,7 +2396,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>1</v>
       </c>
@@ -2374,7 +2407,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>2</v>
       </c>
@@ -2385,7 +2418,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -2394,7 +2427,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>112</v>
       </c>
@@ -2405,7 +2438,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -2414,7 +2447,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>107</v>
       </c>
@@ -2431,7 +2464,7 @@
       </c>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>1</v>
       </c>
@@ -2442,7 +2475,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>2</v>
       </c>
@@ -2453,7 +2486,7 @@
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -2462,7 +2495,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>5</v>
       </c>
@@ -2473,7 +2506,67 @@
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
     </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B179" s="7"/>
+      <c r="D179" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <f ca="1">RAND()</f>
+        <v>0.87784001816838253</v>
+      </c>
+      <c r="B180" t="str">
+        <f ca="1">IF(A180&lt;=0.8, "Train", "Test")</f>
+        <v>Test</v>
+      </c>
+      <c r="D180" t="str">
+        <f ca="1">IF(RAND()&lt;=0.8, "Train", "Test")</f>
+        <v>Train</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>140</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>142</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>144</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A179:B179"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="13">
     <tablePart r:id="rId1"/>
@@ -2494,6 +2587,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008B54FA330C542341911717840D311C35" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ea43cdd1f6d01066cc0ecfef0cf213be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="51ec0d33-bfe6-4d2d-a2f1-179432471ed0" xmlns:ns3="369b2a2f-8749-48d1-8de3-e286dc811327" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cfe79f70d1fa2aec064df89a6d71c36" ns2:_="" ns3:_="">
     <xsd:import namespace="51ec0d33-bfe6-4d2d-a2f1-179432471ed0"/>
@@ -2676,7 +2778,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="51ec0d33-bfe6-4d2d-a2f1-179432471ed0">
@@ -2687,16 +2789,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{326BB0C1-D298-4377-84CE-13F84B7FCD2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4E4B15-40E3-4AAB-90B6-FD8721DB0661}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2715,27 +2816,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3440D2F2-2AA8-459D-97E8-2E4244AE4E06}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="51ec0d33-bfe6-4d2d-a2f1-179432471ed0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="369b2a2f-8749-48d1-8de3-e286dc811327"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="369b2a2f-8749-48d1-8de3-e286dc811327"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{326BB0C1-D298-4377-84CE-13F84B7FCD2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>